--- a/meta/17-6-1.xlsx
+++ b/meta/17-6-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -100,6 +100,9 @@
     <t>17.6 Расширять сотрудничество по линии Север — Юг и Юг — Юг, а также трехстороннее региональное и международное сотрудничество в областях науки, техники и инноваций и доступ к соответствующим достижениям; активизировать обмен знаниями на взаимно согласованных условиях, в том числе благодаря улучшению координации между существующими механизмами, в частности на уровне Организации Объединенных Наций, а также с помощью глобального механизма содействия передаче технологий</t>
   </si>
   <si>
+    <t>Государственное агентство связи при Государственном комитете информационных технологий и связи Кыргызской Республики</t>
+  </si>
+  <si>
     <t>Ланговая А.А.</t>
   </si>
   <si>
@@ -147,9 +150,6 @@
   </si>
   <si>
     <t>17.6.1 Число стационарных абонентов широкополосного Интернета в разбивке по скорости</t>
-  </si>
-  <si>
-    <t>Министерство цифрового развития Кыргызской Республики</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -262,6 +262,7 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -568,10 +569,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,13 +582,13 @@
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -595,110 +596,111 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -718,7 +720,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -726,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -746,7 +748,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,7 +756,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -770,11 +772,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/meta/17-6-1.xlsx
+++ b/meta/17-6-1.xlsx
@@ -100,24 +100,6 @@
     <t>17.6 Расширять сотрудничество по линии Север — Юг и Юг — Юг, а также трехстороннее региональное и международное сотрудничество в областях науки, техники и инноваций и доступ к соответствующим достижениям; активизировать обмен знаниями на взаимно согласованных условиях, в том числе благодаря улучшению координации между существующими механизмами, в частности на уровне Организации Объединенных Наций, а также с помощью глобального механизма содействия передаче технологий</t>
   </si>
   <si>
-    <t>Государственное агентство связи при Государственном комитете информационных технологий и связи Кыргызской Республики</t>
-  </si>
-  <si>
-    <t>Ланговая А.А.</t>
-  </si>
-  <si>
-    <t>a.langovaya@nas.gov.kg</t>
-  </si>
-  <si>
-    <t>(0312) 560109</t>
-  </si>
-  <si>
-    <t>www.nas.gov.kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Показатель числа стационарных абонентов широкополосной сети Интернет по скорости относится к числу стационарных абонентов широкополосной сети в общедоступном Интернете, разделенных объявляемой скорости загрузки </t>
-  </si>
-  <si>
     <t>Показатель в настоящее время разбивается на следующие скорости подписки:
 - 256 кбит/с до менее 2 Мбит/с: относится ко всем стационарным широкополосным интернет-подпискам с объявляемыми скоростями ниже по потоку, равными или превышающими 256 кбит/с и менее 2 Мбит/с.
 - 2 Мбит/с до менее 10 Мбит/с: Относится ко всем стационарным широкополосным интернет-подпискам с объявляемыми скоростями ниже по потоку, равными или превышающими 2 Мбит/с и менее 10 Мбит/с.
@@ -131,12 +113,6 @@
 Сбор данных по количеству фиксированных (проводных) абонентов широкополосного Интернета осуществляется в соответсвии с формами административной статистической отчетности по лицензируемым видам деятельности в области электрической и почтовой связи, утвержденными ГАС при ГКИТиС КР по согласованию с НСК КР. Данные формы отчетности заполняются лицензиатами -операторами электросвязи ежеквартально.</t>
   </si>
   <si>
-    <t>Согласно определения и методу в Справочнике МСЭ по сбору административных данных в области электросвязи/ИКТ.</t>
-  </si>
-  <si>
-    <t>Данный показатель относиться к фиксированным (проводным) широкополосным технологиям и не включает технологии беспроводного широкополосного доступа.</t>
-  </si>
-  <si>
     <t>Агентством связи на ежегодной основе разрабатываются годовые отчеты о деятельности Агентства связи, в которые находятся в свободном доступе и размещены на официальном сайте Агентства связи, в котором отражается общее количество пользователей Интернет, включая беспроводной и мобильный.</t>
   </si>
   <si>
@@ -146,22 +122,64 @@
     <t>МСЭ разрабатывает международные определения, стандарты и методики для измерения информационного общества и информационной экономики и в тесном сотрудничестве с другими региональными и международными организациями и через свои тематические группы экспертов МСЭ является одним из основателей и ключевым партнером в Партнёрстве по измерению ИКТ в целях развития, помогает отслеживать целевые показатели ЦУР, а также является членом Комитета ООН по координации статистической деятельности.</t>
   </si>
   <si>
-    <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
-  </si>
-  <si>
-    <t>17.6.1 Число стационарных абонентов широкополосного Интернета в разбивке по скорости</t>
+    <t>Текеева Люксина Айгуфовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Национальный статистический комитет Кыргызской Республики,
+Управление статистики торговли и услуг, информационно-коммуникационных технологий и туризма
+</t>
+  </si>
+  <si>
+    <t>Ltekeeva@stat.kg</t>
+  </si>
+  <si>
+    <t>(0312) 32-47-25</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>17.6.1 Число  абонентов стационарного широкополосного доступа на 100 жителей в разбивке по скорости</t>
+  </si>
+  <si>
+    <t>Согласно определения и методу в Справочнике МСЭ по сбору административных данных в области электросвязи/ИКТ. Было взято абонентские подключения со скоростями и разделено на численность постоянного населения на 1 января и умножено на 100.</t>
+  </si>
+  <si>
+    <t>Показатель числа стационарных абонентов широкополосной сети Интернет по скорости относится к числу стационарных абонентов широкополосной сети в общедоступном Интернете, разделенных объявляемой скорости загрузки (В марте 2023 года описание сериала было обновлено с «Число абонентов фиксированного
+широкополосного Интернета на 100 жителей, по скорости&amp;quot; к &amp;quot;Число абонентов фиксированного
+широкополосного доступа на 100 жителей, по скорости”; содержание в серии то же самое.)</t>
+  </si>
+  <si>
+    <t>Данный показатель относиться к фиксированным (проводным) широкополосным технологиям и не включает технологии беспроводного широкополосного доступа. Единица измерения: На 100 жителей</t>
+  </si>
+  <si>
+    <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io  Справочник Международного союза электросвязи (МСЭ) по сбору административных данных в
+области телекоммуникаций/ИКТ 2020 г.:https://www.itu.int/en/ITU-
+D/Statistics/Pages/publications/handbook.aspx                                  URL-адрес:
+http://www.itu.int/en/ITU-D/Statistics/Pages/default.aspx
+Ссылки:
+Справочник МСЭ по сбору административных данных по электросвязи/ИКТ
+2020:https://www.itu.int/en/ITU-D/Statistics/Pages/publications/handbook.aspx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,6 +209,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,37 +260,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
@@ -571,8 +607,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,14 +639,14 @@
       <c r="B3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>43</v>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -623,40 +659,40 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>28</v>
+      <c r="B6" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
+      <c r="B7" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
+      <c r="B9" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>32</v>
+      <c r="B10" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,12 +701,12 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
+      <c r="B12" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,7 +714,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -686,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -700,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -719,16 +755,16 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>37</v>
+      <c r="B19" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>38</v>
+      <c r="B20" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -748,7 +784,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -756,7 +792,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -764,20 +800,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>42</v>
+      <c r="B26" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/meta/17-6-1.xlsx
+++ b/meta/17-6-1.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -94,72 +94,49 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t>Цель 17. Укрепление средств осуществления и активизация работы в рамках Глобального партнерства в интересах устойчивого развития</t>
-  </si>
-  <si>
-    <t>17.6 Расширять сотрудничество по линии Север — Юг и Юг — Юг, а также трехстороннее региональное и международное сотрудничество в областях науки, техники и инноваций и доступ к соответствующим достижениям; активизировать обмен знаниями на взаимно согласованных условиях, в том числе благодаря улучшению координации между существующими механизмами, в частности на уровне Организации Объединенных Наций, а также с помощью глобального механизма содействия передаче технологий</t>
+    <t>17.6 Расширять сотрудничество по линии Север — Юг и Юг — Юг, а также трехстороннее региональное и международное сотрудничество в областях науки, техники и инноваций и доступ к соответствующим достижениям; активизировать обмен знаниями на взаимно согласованных условиях, в том числе благодаря улучшению координации между существующими механизмами, в частности на уровне Организации Объединенных Наций, а также с помощью глобального механизма содействия передаче технологий</t>
+  </si>
+  <si>
+    <t>17.6.1 Число стационарных абонентов широкополосного Интернета в разбивке по скорости</t>
+  </si>
+  <si>
+    <t>17. Укрепление средств осуществления и активизация работы в рамках Глобального партнерства в интересах устойчивого развития Финансирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Служба по регулированию и надзору в отрасли связи при Министерстве цифрового развития и инновационных технологий Кыргызской Республики </t>
+  </si>
+  <si>
+    <t>Ланговая А.А.</t>
+  </si>
+  <si>
+    <t>a.langovaya@nas.gov.kg</t>
+  </si>
+  <si>
+    <t>54-60-89</t>
+  </si>
+  <si>
+    <t>https://nas.gov.kg/</t>
+  </si>
+  <si>
+    <t>Показатель числа стационарных абонентов широкополосной сети Интернет по скорости относится к числу стационарных абонентов широкополосной сети в общедоступном Интернете, разделенных объявляемой скорости загрузки</t>
   </si>
   <si>
     <t>Показатель в настоящее время разбивается на следующие скорости подписки:
-- 256 кбит/с до менее 2 Мбит/с: относится ко всем стационарным широкополосным интернет-подпискам с объявляемыми скоростями ниже по потоку, равными или превышающими 256 кбит/с и менее 2 Мбит/с.
-- 2 Мбит/с до менее 10 Мбит/с: Относится ко всем стационарным широкополосным интернет-подпискам с объявляемыми скоростями ниже по потоку, равными или превышающими 2 Мбит/с и менее 10 Мбит/с.
-- Равны или превышают 10 Мбит/с (4213_G10). Относится ко всем стационарным широкополосным интернет-подпискам с объявляемыми скоростями на низком уровне, равными или превышающими 10 Мбит/с.</t>
-  </si>
-  <si>
-    <t>Интернет стал все более важным инструментом обеспечения доступа к информации и может способствовать развитию и расширению регионального и международного сотрудничества в области науки и технологий, инноваций и доступа к ним, а также расширению обмена знаниями. Высокоскоростной доступ в Интернет имеет важное значение для обеспечения того, чтобы пользователи Интернета имели качественный доступ к Интернету и могли использовать растущее количество интернет-контента, включая контент, созданный пользователями, услуги и информацию.</t>
-  </si>
-  <si>
-    <t>Данные о количестве стационарных абонентов широкополосного Интернета в разбивке по скорости предоставляется Государственным комитет информационных технологий и связи КР Нацстаткому на основе дополнительного запроса.
-Сбор данных по количеству фиксированных (проводных) абонентов широкополосного Интернета осуществляется в соответсвии с формами административной статистической отчетности по лицензируемым видам деятельности в области электрической и почтовой связи, утвержденными ГАС при ГКИТиС КР по согласованию с НСК КР. Данные формы отчетности заполняются лицензиатами -операторами электросвязи ежеквартально.</t>
-  </si>
-  <si>
-    <t>Агентством связи на ежегодной основе разрабатываются годовые отчеты о деятельности Агентства связи, в которые находятся в свободном доступе и размещены на официальном сайте Агентства связи, в котором отражается общее количество пользователей Интернет, включая беспроводной и мобильный.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">По скорости интернета: 256 кбит/с до менее 2 Мбит/с, 2 Мбит/с до менее 10 Мбит/с, равны или превышают 10 Мбит/с. </t>
-  </si>
-  <si>
-    <t>МСЭ разрабатывает международные определения, стандарты и методики для измерения информационного общества и информационной экономики и в тесном сотрудничестве с другими региональными и международными организациями и через свои тематические группы экспертов МСЭ является одним из основателей и ключевым партнером в Партнёрстве по измерению ИКТ в целях развития, помогает отслеживать целевые показатели ЦУР, а также является членом Комитета ООН по координации статистической деятельности.</t>
-  </si>
-  <si>
-    <t>Текеева Люксина Айгуфовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Национальный статистический комитет Кыргызской Республики,
-Управление статистики торговли и услуг, информационно-коммуникационных технологий и туризма
-</t>
-  </si>
-  <si>
-    <t>Ltekeeva@stat.kg</t>
-  </si>
-  <si>
-    <t>(0312) 32-47-25</t>
-  </si>
-  <si>
-    <t>www.stat.gov.kg</t>
-  </si>
-  <si>
-    <t>17.6.1 Число  абонентов стационарного широкополосного доступа на 100 жителей в разбивке по скорости</t>
-  </si>
-  <si>
-    <t>Согласно определения и методу в Справочнике МСЭ по сбору административных данных в области электросвязи/ИКТ. Было взято абонентские подключения со скоростями и разделено на численность постоянного населения на 1 января и умножено на 100.</t>
-  </si>
-  <si>
-    <t>Показатель числа стационарных абонентов широкополосной сети Интернет по скорости относится к числу стационарных абонентов широкополосной сети в общедоступном Интернете, разделенных объявляемой скорости загрузки (В марте 2023 года описание сериала было обновлено с «Число абонентов фиксированного
-широкополосного Интернета на 100 жителей, по скорости&amp;quot; к &amp;quot;Число абонентов фиксированного
-широкополосного доступа на 100 жителей, по скорости”; содержание в серии то же самое.)</t>
-  </si>
-  <si>
-    <t>Данный показатель относиться к фиксированным (проводным) широкополосным технологиям и не включает технологии беспроводного широкополосного доступа. Единица измерения: На 100 жителей</t>
-  </si>
-  <si>
-    <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io  Справочник Международного союза электросвязи (МСЭ) по сбору административных данных в
-области телекоммуникаций/ИКТ 2020 г.:https://www.itu.int/en/ITU-
-D/Statistics/Pages/publications/handbook.aspx                                  URL-адрес:
-http://www.itu.int/en/ITU-D/Statistics/Pages/default.aspx
-Ссылки:
-Справочник МСЭ по сбору административных данных по электросвязи/ИКТ
-2020:https://www.itu.int/en/ITU-D/Statistics/Pages/publications/handbook.aspx</t>
+-256 кбит/с до менее 2 Мбит/с: относится ко всем стационарным широкополосным интернет-подпискам с объявляемыми скоростями ниже по потоку, равными или превышающими 256 кбит/с и менее 2 Мбит/с.
+-2 Мбит/с до менее 10 Мбит/с: Относится ко всем стационарным широкополосным интернет-подпискам с объявляемыми скоростями ниже по потоку, равными или превышающими 2 Мбит/с и менее 10 Мбит/с.
+-Равны или превышают 10 Мбит/с. Относится ко всем стационарным широкополосным интернет-подпискам с объявляемыми скоростями на низком уровне, равными или превышающими 10 Мбит/с.</t>
+  </si>
+  <si>
+    <t>Интернет стал все более важным инструментом обеспечения доступа к информации и может способствовать развитию и расширению регионального и международного сотрудничества в области науки и технологий, инноваций и доступа к ним, а также расширению обмена знаниями. Высокоскоростной доступ в интернет имеет важное значение для обеспечения того, чтобы пользователи интернета имели качественный доступ к интернету и могли использовать растущее количество интернет-контента, включая контент, созданный пользователями, услуги и информацию.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сбор данных по количеству фиксированных (проводных) абонентов широкополосного интернета осуществляется в соответсвии с формами администативной статистической отчетности лицензиаты предоставляют ежеквартально. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Согласно формам администативной статистической отчетности лицензиаты предоставляют ежеквартально. </t>
+  </si>
+  <si>
+    <t>Формы административной статистической отчетности , инструкция  по их заполнению находиться в открытом доступе на сайте Службы по регулированию и надзору в отрасли связи при Министерстве цифрового развития и инновационных технологий Кыргызской Республики https://nas.gov.kg/dp/formy-otchetnosti/</t>
   </si>
 </sst>
 </file>
@@ -172,6 +149,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,14 +194,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,33 +237,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -294,13 +277,8 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
@@ -604,146 +582,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="99.140625" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -751,27 +729,23 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -779,44 +753,35 @@
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>43</v>
+      <c r="B26" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-  </hyperlinks>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/meta/17-6-1.xlsx
+++ b/meta/17-6-1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -94,77 +94,87 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t>17.6 Расширять сотрудничество по линии Север — Юг и Юг — Юг, а также трехстороннее региональное и международное сотрудничество в областях науки, техники и инноваций и доступ к соответствующим достижениям; активизировать обмен знаниями на взаимно согласованных условиях, в том числе благодаря улучшению координации между существующими механизмами, в частности на уровне Организации Объединенных Наций, а также с помощью глобального механизма содействия передаче технологий</t>
-  </si>
-  <si>
-    <t>17.6.1 Число стационарных абонентов широкополосного Интернета в разбивке по скорости</t>
-  </si>
-  <si>
-    <t>17. Укрепление средств осуществления и активизация работы в рамках Глобального партнерства в интересах устойчивого развития Финансирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Служба по регулированию и надзору в отрасли связи при Министерстве цифрового развития и инновационных технологий Кыргызской Республики </t>
-  </si>
-  <si>
-    <t>Ланговая А.А.</t>
-  </si>
-  <si>
-    <t>a.langovaya@nas.gov.kg</t>
-  </si>
-  <si>
-    <t>54-60-89</t>
-  </si>
-  <si>
-    <t>https://nas.gov.kg/</t>
-  </si>
-  <si>
-    <t>Показатель числа стационарных абонентов широкополосной сети Интернет по скорости относится к числу стационарных абонентов широкополосной сети в общедоступном Интернете, разделенных объявляемой скорости загрузки</t>
+    <t>Цель 17. Укрепление средств осуществления и активизация работы в рамках Глобального партнерства в интересах устойчивого развития</t>
+  </si>
+  <si>
+    <t>17.6 Расширять сотрудничество по линии Север — Юг и Юг — Юг, а также трехстороннее региональное и международное сотрудничество в областях науки, техники и инноваций и доступ к соответствующим достижениям; активизировать обмен знаниями на взаимно согласованных условиях, в том числе благодаря улучшению координации между существующими механизмами, в частности на уровне Организации Объединенных Наций, а также с помощью глобального механизма содействия передаче технологий</t>
+  </si>
+  <si>
+    <t>17.6.1 Число  абонентов стационарного широкополосного доступа на 100 жителей в разбивке по скорости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Служба по регулированию и надзору в отрасли связи при Министерстве цифрового развития и инновационных технологий Кыргызской Республики  2) Национальный статистический комитет Кыргызской Республики,
+Управление статистики торговли и услуг, информационно-коммуникационных технологий и туризма
+</t>
+  </si>
+  <si>
+    <t>1) Ланговая А.А. 2) Текеева Люксина Айгуфовна</t>
+  </si>
+  <si>
+    <t>1) a.langovaya@nas.gov.kg  2) Ltekeeva@stat.kg</t>
+  </si>
+  <si>
+    <t>1) 54-60-89  2) (0312) 32-47-25</t>
+  </si>
+  <si>
+    <t>1) https://nas.gov.kg/  2) www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>Показатель числа стационарных абонентов широкополосной сети Интернет по скорости относится к числу стационарных абонентов широкополосной сети в общедоступном Интернете, разделенных объявляемой скорости загрузки (В марте 2023 года описание сериала было обновлено с «Число абонентов фиксированного
+широкополосного Интернета на 100 жителей, по скорости&amp;quot; к &amp;quot;Число абонентов фиксированного
+широкополосного доступа на 100 жителей, по скорости”; содержание в серии то же самое.)</t>
   </si>
   <si>
     <t>Показатель в настоящее время разбивается на следующие скорости подписки:
--256 кбит/с до менее 2 Мбит/с: относится ко всем стационарным широкополосным интернет-подпискам с объявляемыми скоростями ниже по потоку, равными или превышающими 256 кбит/с и менее 2 Мбит/с.
--2 Мбит/с до менее 10 Мбит/с: Относится ко всем стационарным широкополосным интернет-подпискам с объявляемыми скоростями ниже по потоку, равными или превышающими 2 Мбит/с и менее 10 Мбит/с.
--Равны или превышают 10 Мбит/с. Относится ко всем стационарным широкополосным интернет-подпискам с объявляемыми скоростями на низком уровне, равными или превышающими 10 Мбит/с.</t>
-  </si>
-  <si>
-    <t>Интернет стал все более важным инструментом обеспечения доступа к информации и может способствовать развитию и расширению регионального и международного сотрудничества в области науки и технологий, инноваций и доступа к ним, а также расширению обмена знаниями. Высокоскоростной доступ в интернет имеет важное значение для обеспечения того, чтобы пользователи интернета имели качественный доступ к интернету и могли использовать растущее количество интернет-контента, включая контент, созданный пользователями, услуги и информацию.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сбор данных по количеству фиксированных (проводных) абонентов широкополосного интернета осуществляется в соответсвии с формами администативной статистической отчетности лицензиаты предоставляют ежеквартально. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Согласно формам администативной статистической отчетности лицензиаты предоставляют ежеквартально. </t>
-  </si>
-  <si>
-    <t>Формы административной статистической отчетности , инструкция  по их заполнению находиться в открытом доступе на сайте Службы по регулированию и надзору в отрасли связи при Министерстве цифрового развития и инновационных технологий Кыргызской Республики https://nas.gov.kg/dp/formy-otchetnosti/</t>
+- 256 кбит/с до менее 2 Мбит/с: относится ко всем стационарным широкополосным интернет-подпискам с объявляемыми скоростями ниже по потоку, равными или превышающими 256 кбит/с и менее 2 Мбит/с.
+- 2 Мбит/с до менее 10 Мбит/с: Относится ко всем стационарным широкополосным интернет-подпискам с объявляемыми скоростями ниже по потоку, равными или превышающими 2 Мбит/с и менее 10 Мбит/с.
+- Равны или превышают 10 Мбит/с (4213_G10). Относится ко всем стационарным широкополосным интернет-подпискам с объявляемыми скоростями на низком уровне, равными или превышающими 10 Мбит/с.</t>
+  </si>
+  <si>
+    <t>Интернет стал все более важным инструментом обеспечения доступа к информации и может способствовать развитию и расширению регионального и международного сотрудничества в области науки и технологий, инноваций и доступа к ним, а также расширению обмена знаниями. Высокоскоростной доступ в Интернет имеет важное значение для обеспечения того, чтобы пользователи Интернета имели качественный доступ к Интернету и могли использовать растущее количество интернет-контента, включая контент, созданный пользователями, услуги и информацию.</t>
+  </si>
+  <si>
+    <t>Согласно определения и методу в Справочнике МСЭ по сбору административных данных в области электросвязи/ИКТ. Было взято абонентские подключения со скоростями и разделено на численность постоянного населения на 1 января и умножено на 100.</t>
+  </si>
+  <si>
+    <t>Данный показатель относиться к фиксированным (проводным) широкополосным технологиям и не включает технологии беспроводного широкополосного доступа. Единица измерения: На 100 жителей</t>
+  </si>
+  <si>
+    <t>Агентством связи на ежегодной основе разрабатываются годовые отчеты о деятельности Агентства связи, в которые находятся в свободном доступе и размещены на официальном сайте Агентства связи, в котором отражается общее количество пользователей Интернет, включая беспроводной и мобильный.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По скорости интернета: 256 кбит/с до менее 2 Мбит/с, 2 Мбит/с до менее 10 Мбит/с, равны или превышают 10 Мбит/с. </t>
+  </si>
+  <si>
+    <t>МСЭ разрабатывает международные определения, стандарты и методики для измерения информационного общества и информационной экономики и в тесном сотрудничестве с другими региональными и международными организациями и через свои тематические группы экспертов МСЭ является одним из основателей и ключевым партнером в Партнёрстве по измерению ИКТ в целях развития, помогает отслеживать целевые показатели ЦУР, а также является членом Комитета ООН по координации статистической деятельности.</t>
+  </si>
+  <si>
+    <t>1) Сбор данных по количеству фиксированных (проводных) абонентов широкополосного интернета осуществляется в соответсвии с формами администативной статистической отчетности лицензиаты предоставляют ежеквартально.  2) Данные о количестве стационарных абонентов широкополосного Интернета в разбивке по скорости предоставляется Государственным комитет информационных технологий и связи КР Нацстаткому на основе дополнительного запроса.
+Сбор данных по количеству фиксированных (проводных) абонентов широкополосного Интернета осуществляется в соответсвии с формами административной статистической отчетности по лицензируемым видам деятельности в области электрической и почтовой связи, утвержденными ГАС при ГКИТиС КР по согласованию с НСК КР. Данные формы отчетности заполняются лицензиатами -операторами электросвязи ежеквартально.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Согласно формам администативной статистической отчетности лицензиаты предоставляют ежеквартально. </t>
+  </si>
+  <si>
+    <t>2) Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io  Справочник Международного союза электросвязи (МСЭ) по сбору административных данных в
+области телекоммуникаций/ИКТ 2020 г.:https://www.itu.int/en/ITU-
+D/Statistics/Pages/publications/handbook.aspx                                  URL-адрес:
+http://www.itu.int/en/ITU-D/Statistics/Pages/default.aspx
+Ссылки:
+Справочник МСЭ по сбору административных данных по электросвязи/ИКТ
+2020:https://www.itu.int/en/ITU-D/Statistics/Pages/publications/handbook.aspx                                                         1)  Формы административной статистической отчетности , инструкция  по их заполнению находиться в открытом доступе на сайте Службы по регулированию и надзору в отрасли связи при Министерстве цифрового развития и инновационных технологий Кыргызской Республики https://nas.gov.kg/dp/formy-otchetnosti/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,42 +249,30 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -605,24 +603,24 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>26</v>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>27</v>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,11 +629,11 @@
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -651,7 +649,7 @@
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -677,27 +675,27 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -707,12 +705,12 @@
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -720,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -729,23 +727,27 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -757,26 +759,32 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
